--- a/Notebooks and Test Datas/test isolation/demanda.xlsx
+++ b/Notebooks and Test Datas/test isolation/demanda.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\Projeto Escola\teste1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\GitHub\Projetos-SEDUC\Notebooks and Test Datas\test isolation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36065290-B64D-4065-A22C-8CA116863F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96605E89-ED04-4AB3-8772-0E609AB3E0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>DISC</t>
-  </si>
-  <si>
-    <t>CH.TURMA</t>
   </si>
   <si>
     <t>MAT</t>
@@ -234,6 +231,9 @@
   </si>
   <si>
     <t>EDIVALDO DE SOUZA OLIV</t>
+  </si>
+  <si>
+    <t>CH</t>
   </si>
 </sst>
 </file>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,27 +663,27 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -691,22 +691,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -714,22 +714,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -737,22 +737,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -760,22 +760,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -783,22 +783,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -806,22 +806,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -829,22 +829,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -852,22 +852,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -875,22 +875,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -898,22 +898,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -921,22 +921,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -944,22 +944,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -967,22 +967,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -990,22 +990,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1013,22 +1013,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
         <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1036,22 +1036,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
         <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1059,22 +1059,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="G19" s="5">
         <v>2</v>
@@ -1082,22 +1082,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1105,22 +1105,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1128,22 +1128,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1151,22 +1151,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -1174,22 +1174,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1197,22 +1197,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5">
         <v>2</v>
@@ -1220,22 +1220,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F26" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G26" s="5">
         <v>2</v>
@@ -1243,22 +1243,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" s="5">
         <v>2</v>
@@ -1266,22 +1266,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="5">
         <v>2</v>
@@ -1289,22 +1289,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="5">
         <v>2</v>
@@ -1312,22 +1312,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="5">
         <v>2</v>
@@ -1335,22 +1335,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="5">
         <v>2</v>
@@ -1358,22 +1358,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G32" s="5">
         <v>2</v>
@@ -1381,22 +1381,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" s="5">
         <v>1</v>
@@ -1404,22 +1404,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="5">
         <v>2</v>
@@ -1427,22 +1427,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G35" s="5">
         <v>1</v>
@@ -1450,22 +1450,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1473,22 +1473,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -1496,22 +1496,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1519,22 +1519,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G39">
         <v>2</v>
@@ -1542,22 +1542,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1565,22 +1565,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -1588,22 +1588,22 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -1611,22 +1611,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -1634,22 +1634,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -1657,22 +1657,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -1680,22 +1680,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -1703,22 +1703,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -1726,22 +1726,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -1749,22 +1749,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -1772,22 +1772,22 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -1795,22 +1795,22 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -1818,22 +1818,22 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G52">
         <v>2</v>
@@ -1841,22 +1841,22 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -1864,22 +1864,22 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -1887,22 +1887,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -1910,22 +1910,22 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -1933,22 +1933,22 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -1956,22 +1956,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -1979,22 +1979,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2002,22 +2002,22 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -2025,22 +2025,22 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G61" s="2">
         <v>1</v>
@@ -2048,22 +2048,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G62" s="2">
         <v>1</v>
@@ -2071,22 +2071,22 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" s="2">
         <v>1</v>
@@ -2094,22 +2094,22 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" s="2">
         <v>1</v>
@@ -2117,22 +2117,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
@@ -2140,22 +2140,22 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G66" s="2">
         <v>3</v>
@@ -2163,22 +2163,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G67" s="2">
         <v>3</v>
@@ -2186,22 +2186,22 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G68" s="2">
         <v>3</v>
@@ -2209,22 +2209,22 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G69" s="2">
         <v>2</v>
@@ -2232,22 +2232,22 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70" t="s">
         <v>28</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" t="s">
-        <v>29</v>
       </c>
       <c r="G70">
         <v>3</v>
@@ -2255,22 +2255,22 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
         <v>28</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" t="s">
-        <v>29</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -2278,22 +2278,22 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
         <v>28</v>
-      </c>
-      <c r="D72" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
-        <v>29</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -2301,22 +2301,22 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
         <v>28</v>
-      </c>
-      <c r="D73" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73" t="s">
-        <v>29</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -2324,22 +2324,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -2347,22 +2347,22 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75">
         <v>2</v>
@@ -2370,22 +2370,22 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G76" s="5">
         <v>1</v>
@@ -2393,22 +2393,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G77" s="5">
         <v>1</v>
@@ -2416,22 +2416,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G78" s="5">
         <v>1</v>
@@ -2439,22 +2439,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G79" s="5">
         <v>1</v>
@@ -2462,22 +2462,22 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G80" s="5">
         <v>1</v>
@@ -2485,22 +2485,22 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G81" s="5">
         <v>1</v>
@@ -2508,22 +2508,22 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="G82" s="5">
         <v>1</v>
@@ -2531,22 +2531,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
         <v>28</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" t="s">
-        <v>29</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -2554,22 +2554,22 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
         <v>28</v>
-      </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" t="s">
-        <v>29</v>
       </c>
       <c r="G84">
         <v>3</v>
@@ -2577,22 +2577,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" t="s">
         <v>28</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" t="s">
-        <v>29</v>
       </c>
       <c r="G85">
         <v>3</v>
@@ -2600,22 +2600,22 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -2623,22 +2623,22 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
         <v>28</v>
-      </c>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" t="s">
-        <v>29</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -2646,22 +2646,22 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -2669,22 +2669,22 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G89" s="2">
         <v>1</v>
@@ -2692,22 +2692,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G90" s="2">
         <v>1</v>
@@ -2715,22 +2715,22 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G91" s="2">
         <v>2</v>
@@ -2738,22 +2738,22 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G92" s="2">
         <v>2</v>
@@ -2761,22 +2761,22 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G93" s="2">
         <v>2</v>
@@ -2784,22 +2784,22 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G94" s="2">
         <v>2</v>
@@ -2807,22 +2807,22 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G95" s="2">
         <v>2</v>
@@ -2830,22 +2830,22 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G96" s="4">
         <v>1</v>
@@ -2853,22 +2853,22 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
@@ -2876,22 +2876,22 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -2899,22 +2899,22 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -2922,22 +2922,22 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
         <v>44</v>
-      </c>
-      <c r="B100" t="s">
-        <v>32</v>
-      </c>
-      <c r="C100" t="s">
-        <v>28</v>
-      </c>
-      <c r="D100" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>45</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -2945,22 +2945,22 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -2968,22 +2968,22 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" t="s">
         <v>44</v>
-      </c>
-      <c r="B102" t="s">
-        <v>32</v>
-      </c>
-      <c r="C102" t="s">
-        <v>28</v>
-      </c>
-      <c r="D102" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" t="s">
-        <v>45</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -2991,22 +2991,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" t="s">
+        <v>31</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103" t="s">
         <v>44</v>
-      </c>
-      <c r="B103" t="s">
-        <v>32</v>
-      </c>
-      <c r="C103" t="s">
-        <v>28</v>
-      </c>
-      <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" t="s">
-        <v>45</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -3014,22 +3014,22 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
         <v>44</v>
-      </c>
-      <c r="B104" t="s">
-        <v>32</v>
-      </c>
-      <c r="C104" t="s">
-        <v>28</v>
-      </c>
-      <c r="D104" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" t="s">
-        <v>17</v>
-      </c>
-      <c r="F104" t="s">
-        <v>45</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3037,22 +3037,22 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
         <v>44</v>
-      </c>
-      <c r="B105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C105" t="s">
-        <v>28</v>
-      </c>
-      <c r="D105" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" t="s">
-        <v>9</v>
-      </c>
-      <c r="F105" t="s">
-        <v>45</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -3060,22 +3060,22 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" t="s">
         <v>44</v>
-      </c>
-      <c r="B106" t="s">
-        <v>32</v>
-      </c>
-      <c r="C106" t="s">
-        <v>28</v>
-      </c>
-      <c r="D106" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" t="s">
-        <v>45</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -3083,22 +3083,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107" t="s">
         <v>44</v>
-      </c>
-      <c r="B107" t="s">
-        <v>32</v>
-      </c>
-      <c r="C107" t="s">
-        <v>28</v>
-      </c>
-      <c r="D107" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" t="s">
-        <v>45</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -3106,22 +3106,22 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
         <v>44</v>
-      </c>
-      <c r="B108" t="s">
-        <v>32</v>
-      </c>
-      <c r="C108" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" t="s">
-        <v>45</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -3129,22 +3129,22 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
         <v>44</v>
-      </c>
-      <c r="B109" t="s">
-        <v>32</v>
-      </c>
-      <c r="C109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D109" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" t="s">
-        <v>11</v>
-      </c>
-      <c r="F109" t="s">
-        <v>45</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -3152,22 +3152,22 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>11</v>
+      </c>
+      <c r="F110" t="s">
         <v>44</v>
-      </c>
-      <c r="B110" t="s">
-        <v>32</v>
-      </c>
-      <c r="C110" t="s">
-        <v>28</v>
-      </c>
-      <c r="D110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" t="s">
-        <v>45</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -3175,22 +3175,22 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -3198,22 +3198,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112" t="s">
         <v>44</v>
-      </c>
-      <c r="B112" t="s">
-        <v>32</v>
-      </c>
-      <c r="C112" t="s">
-        <v>28</v>
-      </c>
-      <c r="D112" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" t="s">
-        <v>11</v>
-      </c>
-      <c r="F112" t="s">
-        <v>45</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -3221,22 +3221,22 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
         <v>44</v>
-      </c>
-      <c r="B113" t="s">
-        <v>32</v>
-      </c>
-      <c r="C113" t="s">
-        <v>28</v>
-      </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" t="s">
-        <v>45</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -3244,22 +3244,22 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s">
         <v>44</v>
-      </c>
-      <c r="B114" t="s">
-        <v>32</v>
-      </c>
-      <c r="C114" t="s">
-        <v>28</v>
-      </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" t="s">
-        <v>45</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -3267,22 +3267,22 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
+        <v>49</v>
+      </c>
+      <c r="B115" t="s">
+        <v>31</v>
+      </c>
+      <c r="C115" t="s">
+        <v>27</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
         <v>50</v>
-      </c>
-      <c r="B115" t="s">
-        <v>32</v>
-      </c>
-      <c r="C115" t="s">
-        <v>28</v>
-      </c>
-      <c r="D115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" t="s">
-        <v>10</v>
-      </c>
-      <c r="F115" t="s">
-        <v>51</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -3290,22 +3290,22 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>49</v>
+      </c>
+      <c r="B116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C116" t="s">
+        <v>27</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" t="s">
         <v>50</v>
-      </c>
-      <c r="B116" t="s">
-        <v>32</v>
-      </c>
-      <c r="C116" t="s">
-        <v>28</v>
-      </c>
-      <c r="D116" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" t="s">
-        <v>51</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -3313,22 +3313,22 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
+        <v>49</v>
+      </c>
+      <c r="B117" t="s">
+        <v>31</v>
+      </c>
+      <c r="C117" t="s">
+        <v>27</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
         <v>50</v>
-      </c>
-      <c r="B117" t="s">
-        <v>32</v>
-      </c>
-      <c r="C117" t="s">
-        <v>28</v>
-      </c>
-      <c r="D117" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" t="s">
-        <v>15</v>
-      </c>
-      <c r="F117" t="s">
-        <v>51</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -3336,22 +3336,22 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" t="s">
+        <v>27</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
         <v>50</v>
-      </c>
-      <c r="B118" t="s">
-        <v>32</v>
-      </c>
-      <c r="C118" t="s">
-        <v>28</v>
-      </c>
-      <c r="D118" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" t="s">
-        <v>51</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -3359,22 +3359,22 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" t="s">
         <v>50</v>
-      </c>
-      <c r="B119" t="s">
-        <v>32</v>
-      </c>
-      <c r="C119" t="s">
-        <v>28</v>
-      </c>
-      <c r="D119" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" t="s">
-        <v>51</v>
       </c>
       <c r="G119">
         <v>2</v>
@@ -3382,22 +3382,22 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
+        <v>49</v>
+      </c>
+      <c r="B120" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" t="s">
+        <v>27</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" t="s">
         <v>50</v>
-      </c>
-      <c r="B120" t="s">
-        <v>32</v>
-      </c>
-      <c r="C120" t="s">
-        <v>28</v>
-      </c>
-      <c r="D120" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120" t="s">
-        <v>51</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -3405,22 +3405,22 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -3428,22 +3428,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>49</v>
+      </c>
+      <c r="B122" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
         <v>50</v>
-      </c>
-      <c r="B122" t="s">
-        <v>32</v>
-      </c>
-      <c r="C122" t="s">
-        <v>28</v>
-      </c>
-      <c r="D122" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" t="s">
-        <v>51</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -3451,22 +3451,22 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -3474,22 +3474,22 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -3497,22 +3497,22 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -3520,22 +3520,22 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -3543,22 +3543,22 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -3566,22 +3566,22 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -3589,22 +3589,22 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -3612,22 +3612,22 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -3635,22 +3635,22 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" t="s">
         <v>12</v>
       </c>
-      <c r="E131" t="s">
-        <v>13</v>
-      </c>
       <c r="F131" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -3658,22 +3658,22 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G132" s="5">
         <v>2</v>
@@ -3681,22 +3681,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G133" s="5">
         <v>2</v>
@@ -3704,22 +3704,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G134" s="5">
         <v>2</v>
@@ -3727,22 +3727,22 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G135" s="5">
         <v>2</v>
@@ -3750,22 +3750,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G136" s="5">
         <v>2</v>
@@ -3773,22 +3773,22 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G137" s="5">
         <v>1</v>
@@ -3796,22 +3796,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G138" s="5">
         <v>2</v>
@@ -3819,22 +3819,22 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -3842,22 +3842,22 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" t="s">
         <v>21</v>
-      </c>
-      <c r="B140" t="s">
-        <v>32</v>
-      </c>
-      <c r="C140" t="s">
-        <v>28</v>
-      </c>
-      <c r="D140" t="s">
-        <v>11</v>
-      </c>
-      <c r="E140" t="s">
-        <v>15</v>
-      </c>
-      <c r="F140" t="s">
-        <v>22</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -3865,22 +3865,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141" t="s">
         <v>21</v>
-      </c>
-      <c r="B141" t="s">
-        <v>32</v>
-      </c>
-      <c r="C141" t="s">
-        <v>28</v>
-      </c>
-      <c r="D141" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141" t="s">
-        <v>17</v>
-      </c>
-      <c r="F141" t="s">
-        <v>22</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -3888,22 +3888,22 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" t="s">
+        <v>31</v>
+      </c>
+      <c r="C142" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" t="s">
         <v>21</v>
-      </c>
-      <c r="B142" t="s">
-        <v>32</v>
-      </c>
-      <c r="C142" t="s">
-        <v>28</v>
-      </c>
-      <c r="D142" t="s">
-        <v>9</v>
-      </c>
-      <c r="E142" t="s">
-        <v>15</v>
-      </c>
-      <c r="F142" t="s">
-        <v>22</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -3911,22 +3911,22 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s">
+        <v>31</v>
+      </c>
+      <c r="C143" t="s">
+        <v>27</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
         <v>21</v>
-      </c>
-      <c r="B143" t="s">
-        <v>32</v>
-      </c>
-      <c r="C143" t="s">
-        <v>28</v>
-      </c>
-      <c r="D143" t="s">
-        <v>9</v>
-      </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" t="s">
-        <v>22</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -3934,22 +3934,22 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
         <v>21</v>
-      </c>
-      <c r="B144" t="s">
-        <v>32</v>
-      </c>
-      <c r="C144" t="s">
-        <v>28</v>
-      </c>
-      <c r="D144" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" t="s">
-        <v>22</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -3957,22 +3957,22 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>31</v>
+      </c>
+      <c r="C145" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145" t="s">
         <v>21</v>
-      </c>
-      <c r="B145" t="s">
-        <v>32</v>
-      </c>
-      <c r="C145" t="s">
-        <v>28</v>
-      </c>
-      <c r="D145" t="s">
-        <v>9</v>
-      </c>
-      <c r="E145" t="s">
-        <v>12</v>
-      </c>
-      <c r="F145" t="s">
-        <v>22</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -3980,22 +3980,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" t="s">
+        <v>27</v>
+      </c>
+      <c r="D146" t="s">
+        <v>10</v>
+      </c>
+      <c r="E146" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" t="s">
         <v>21</v>
-      </c>
-      <c r="B146" t="s">
-        <v>32</v>
-      </c>
-      <c r="C146" t="s">
-        <v>28</v>
-      </c>
-      <c r="D146" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" t="s">
-        <v>22</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -4003,22 +4003,22 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" t="s">
+        <v>31</v>
+      </c>
+      <c r="C147" t="s">
+        <v>27</v>
+      </c>
+      <c r="D147" t="s">
+        <v>10</v>
+      </c>
+      <c r="E147" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147" t="s">
         <v>21</v>
-      </c>
-      <c r="B147" t="s">
-        <v>32</v>
-      </c>
-      <c r="C147" t="s">
-        <v>28</v>
-      </c>
-      <c r="D147" t="s">
-        <v>11</v>
-      </c>
-      <c r="E147" t="s">
-        <v>17</v>
-      </c>
-      <c r="F147" t="s">
-        <v>22</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -4026,22 +4026,22 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B148" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" t="s">
         <v>21</v>
-      </c>
-      <c r="B148" t="s">
-        <v>32</v>
-      </c>
-      <c r="C148" t="s">
-        <v>28</v>
-      </c>
-      <c r="D148" t="s">
-        <v>11</v>
-      </c>
-      <c r="E148" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" t="s">
-        <v>22</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -4049,22 +4049,22 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
+        <v>20</v>
+      </c>
+      <c r="B149" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" t="s">
+        <v>27</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" t="s">
         <v>21</v>
-      </c>
-      <c r="B149" t="s">
-        <v>32</v>
-      </c>
-      <c r="C149" t="s">
-        <v>28</v>
-      </c>
-      <c r="D149" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" t="s">
-        <v>22</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -4072,22 +4072,22 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" t="s">
+        <v>27</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" t="s">
         <v>24</v>
-      </c>
-      <c r="B150" t="s">
-        <v>32</v>
-      </c>
-      <c r="C150" t="s">
-        <v>28</v>
-      </c>
-      <c r="D150" t="s">
-        <v>11</v>
-      </c>
-      <c r="E150" t="s">
-        <v>12</v>
-      </c>
-      <c r="F150" t="s">
-        <v>25</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -4095,22 +4095,22 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
+        <v>23</v>
+      </c>
+      <c r="B151" t="s">
+        <v>31</v>
+      </c>
+      <c r="C151" t="s">
+        <v>27</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s">
         <v>24</v>
-      </c>
-      <c r="B151" t="s">
-        <v>32</v>
-      </c>
-      <c r="C151" t="s">
-        <v>28</v>
-      </c>
-      <c r="D151" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151" t="s">
-        <v>11</v>
-      </c>
-      <c r="F151" t="s">
-        <v>25</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -4118,22 +4118,22 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" t="s">
         <v>24</v>
-      </c>
-      <c r="B152" t="s">
-        <v>32</v>
-      </c>
-      <c r="C152" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" t="s">
-        <v>9</v>
-      </c>
-      <c r="E152" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" t="s">
-        <v>25</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -4141,22 +4141,22 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
+        <v>23</v>
+      </c>
+      <c r="B153" t="s">
+        <v>31</v>
+      </c>
+      <c r="C153" t="s">
+        <v>27</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" t="s">
         <v>24</v>
-      </c>
-      <c r="B153" t="s">
-        <v>32</v>
-      </c>
-      <c r="C153" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" t="s">
-        <v>11</v>
-      </c>
-      <c r="E153" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" t="s">
-        <v>25</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -4164,22 +4164,22 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
+        <v>23</v>
+      </c>
+      <c r="B154" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" t="s">
+        <v>27</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" t="s">
         <v>24</v>
-      </c>
-      <c r="B154" t="s">
-        <v>32</v>
-      </c>
-      <c r="C154" t="s">
-        <v>28</v>
-      </c>
-      <c r="D154" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154" t="s">
-        <v>15</v>
-      </c>
-      <c r="F154" t="s">
-        <v>25</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -4187,22 +4187,22 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" t="s">
         <v>24</v>
-      </c>
-      <c r="B155" t="s">
-        <v>32</v>
-      </c>
-      <c r="C155" t="s">
-        <v>28</v>
-      </c>
-      <c r="D155" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" t="s">
-        <v>17</v>
-      </c>
-      <c r="F155" t="s">
-        <v>25</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -4210,22 +4210,22 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -4233,22 +4233,22 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" t="s">
+        <v>31</v>
+      </c>
+      <c r="C157" t="s">
+        <v>27</v>
+      </c>
+      <c r="D157" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s">
         <v>24</v>
-      </c>
-      <c r="B157" t="s">
-        <v>32</v>
-      </c>
-      <c r="C157" t="s">
-        <v>28</v>
-      </c>
-      <c r="D157" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" t="s">
-        <v>25</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -4256,22 +4256,22 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" t="s">
+        <v>31</v>
+      </c>
+      <c r="C158" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" t="s">
+        <v>10</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" t="s">
         <v>24</v>
-      </c>
-      <c r="B158" t="s">
-        <v>32</v>
-      </c>
-      <c r="C158" t="s">
-        <v>28</v>
-      </c>
-      <c r="D158" t="s">
-        <v>11</v>
-      </c>
-      <c r="E158" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" t="s">
-        <v>25</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -4279,22 +4279,22 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B159" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G159">
         <v>2</v>
@@ -4302,22 +4302,22 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" t="s">
+        <v>31</v>
+      </c>
+      <c r="C160" t="s">
+        <v>27</v>
+      </c>
+      <c r="D160" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" t="s">
         <v>24</v>
-      </c>
-      <c r="B160" t="s">
-        <v>32</v>
-      </c>
-      <c r="C160" t="s">
-        <v>28</v>
-      </c>
-      <c r="D160" t="s">
-        <v>11</v>
-      </c>
-      <c r="E160" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" t="s">
-        <v>25</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -4325,22 +4325,22 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -4348,22 +4348,22 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F162" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -4371,22 +4371,22 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -4394,22 +4394,22 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B164" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F164" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G164">
         <v>2</v>
@@ -4417,22 +4417,22 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -4440,22 +4440,22 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B166" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -4463,22 +4463,22 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G167">
         <v>2</v>
@@ -4486,22 +4486,22 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" t="s">
         <v>12</v>
       </c>
-      <c r="E168" t="s">
-        <v>13</v>
-      </c>
       <c r="F168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -4509,22 +4509,22 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -4532,22 +4532,22 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B170" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C170" t="s">
+        <v>27</v>
+      </c>
+      <c r="D170" t="s">
+        <v>10</v>
+      </c>
+      <c r="E170" t="s">
+        <v>11</v>
+      </c>
+      <c r="F170" t="s">
         <v>28</v>
-      </c>
-      <c r="D170" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" t="s">
-        <v>12</v>
-      </c>
-      <c r="F170" t="s">
-        <v>29</v>
       </c>
       <c r="G170">
         <v>3</v>
@@ -4555,22 +4555,22 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C171" t="s">
+        <v>27</v>
+      </c>
+      <c r="D171" t="s">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" t="s">
         <v>28</v>
-      </c>
-      <c r="D171" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" t="s">
-        <v>11</v>
-      </c>
-      <c r="F171" t="s">
-        <v>29</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -4578,22 +4578,22 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C172" t="s">
+        <v>27</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" t="s">
         <v>28</v>
-      </c>
-      <c r="D172" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" t="s">
-        <v>15</v>
-      </c>
-      <c r="F172" t="s">
-        <v>29</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -4601,22 +4601,22 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G173">
         <v>2</v>
@@ -4624,22 +4624,22 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C174" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" t="s">
+        <v>8</v>
+      </c>
+      <c r="F174" t="s">
         <v>28</v>
-      </c>
-      <c r="D174" t="s">
-        <v>11</v>
-      </c>
-      <c r="E174" t="s">
-        <v>9</v>
-      </c>
-      <c r="F174" t="s">
-        <v>29</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -4647,22 +4647,22 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -4670,22 +4670,22 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G176">
         <v>2</v>
@@ -4693,22 +4693,22 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -4716,22 +4716,22 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F178" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G178">
         <v>2</v>
@@ -4739,22 +4739,22 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -4762,22 +4762,22 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -4785,22 +4785,22 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -4808,22 +4808,22 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
+        <v>40</v>
+      </c>
+      <c r="B182" t="s">
+        <v>31</v>
+      </c>
+      <c r="C182" t="s">
+        <v>27</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" t="s">
+        <v>16</v>
+      </c>
+      <c r="F182" t="s">
         <v>41</v>
-      </c>
-      <c r="B182" t="s">
-        <v>32</v>
-      </c>
-      <c r="C182" t="s">
-        <v>28</v>
-      </c>
-      <c r="D182" t="s">
-        <v>12</v>
-      </c>
-      <c r="E182" t="s">
-        <v>17</v>
-      </c>
-      <c r="F182" t="s">
-        <v>42</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -4831,22 +4831,22 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>40</v>
+      </c>
+      <c r="B183" t="s">
+        <v>31</v>
+      </c>
+      <c r="C183" t="s">
+        <v>27</v>
+      </c>
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" t="s">
         <v>41</v>
-      </c>
-      <c r="B183" t="s">
-        <v>32</v>
-      </c>
-      <c r="C183" t="s">
-        <v>28</v>
-      </c>
-      <c r="D183" t="s">
-        <v>12</v>
-      </c>
-      <c r="E183" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" t="s">
-        <v>42</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -4854,22 +4854,22 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" t="s">
         <v>12</v>
       </c>
-      <c r="E184" t="s">
-        <v>13</v>
-      </c>
       <c r="F184" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -4877,22 +4877,22 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G185" s="2">
         <v>1</v>
@@ -4900,22 +4900,22 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F186" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G186">
         <v>2</v>
@@ -4923,22 +4923,22 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E187" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F187" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -4946,22 +4946,22 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -4969,22 +4969,22 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G189">
         <v>2</v>
@@ -4992,22 +4992,22 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -5015,22 +5015,22 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -5038,22 +5038,22 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B192" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G192">
         <v>2</v>
@@ -5061,22 +5061,22 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D193" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -5084,22 +5084,22 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B194" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -5107,22 +5107,22 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G195">
         <v>2</v>
@@ -5130,22 +5130,22 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
+        <v>45</v>
+      </c>
+      <c r="B196" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196" t="s">
+        <v>27</v>
+      </c>
+      <c r="D196" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" t="s">
         <v>46</v>
-      </c>
-      <c r="B196" t="s">
-        <v>32</v>
-      </c>
-      <c r="C196" t="s">
-        <v>28</v>
-      </c>
-      <c r="D196" t="s">
-        <v>12</v>
-      </c>
-      <c r="E196" t="s">
-        <v>12</v>
-      </c>
-      <c r="F196" t="s">
-        <v>47</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -5153,22 +5153,22 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B197" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G197">
         <v>2</v>
@@ -5176,22 +5176,22 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F198" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G198">
         <v>2</v>
@@ -5199,22 +5199,22 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -5222,22 +5222,22 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B200" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F200" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -5245,22 +5245,22 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G201" s="5">
         <v>1</v>
@@ -5268,22 +5268,22 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G202" s="5">
         <v>1</v>
@@ -5291,22 +5291,22 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G203" s="5">
         <v>1</v>
@@ -5314,22 +5314,22 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G204" s="5">
         <v>1</v>
@@ -5337,22 +5337,22 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B205" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D205" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F205" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G205">
         <v>1</v>
@@ -5360,22 +5360,22 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B206" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -5383,22 +5383,22 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B207" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -5406,22 +5406,22 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B208" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D208" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F208" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G208">
         <v>1</v>
@@ -5429,22 +5429,22 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B209" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F209" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G209">
         <v>1</v>
@@ -5452,22 +5452,22 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B210" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F210" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -5475,22 +5475,22 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B211" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D211" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" t="s">
         <v>12</v>
       </c>
-      <c r="E211" t="s">
-        <v>13</v>
-      </c>
       <c r="F211" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -5498,22 +5498,22 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G212" s="5">
         <v>1</v>
@@ -5521,22 +5521,22 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E213" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G213" s="5">
         <v>2</v>
@@ -5544,22 +5544,22 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G214" s="5">
         <v>2</v>
@@ -5567,22 +5567,22 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G215" s="5">
         <v>2</v>
@@ -5590,22 +5590,22 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G216" s="5">
         <v>2</v>
@@ -5613,22 +5613,22 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G217" s="5">
         <v>2</v>
@@ -5636,22 +5636,22 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G218" s="5">
         <v>2</v>
@@ -5659,22 +5659,22 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G219" s="5">
         <v>1</v>
@@ -5682,22 +5682,22 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G220" s="5">
         <v>1</v>
@@ -5705,22 +5705,22 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G221" s="5">
         <v>1</v>
@@ -5728,22 +5728,22 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G222" s="5">
         <v>1</v>
@@ -5751,22 +5751,22 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G223" s="5">
         <v>1</v>
@@ -5774,22 +5774,22 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D224" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G224" s="5">
         <v>2</v>
@@ -5797,22 +5797,22 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
+        <v>53</v>
+      </c>
+      <c r="B225" t="s">
+        <v>31</v>
+      </c>
+      <c r="C225" t="s">
+        <v>27</v>
+      </c>
+      <c r="D225" t="s">
+        <v>11</v>
+      </c>
+      <c r="E225" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225" t="s">
         <v>54</v>
-      </c>
-      <c r="B225" t="s">
-        <v>32</v>
-      </c>
-      <c r="C225" t="s">
-        <v>28</v>
-      </c>
-      <c r="D225" t="s">
-        <v>12</v>
-      </c>
-      <c r="E225" t="s">
-        <v>10</v>
-      </c>
-      <c r="F225" t="s">
-        <v>55</v>
       </c>
       <c r="G225">
         <v>2</v>
@@ -5820,22 +5820,22 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
+        <v>53</v>
+      </c>
+      <c r="B226" t="s">
+        <v>31</v>
+      </c>
+      <c r="C226" t="s">
+        <v>27</v>
+      </c>
+      <c r="D226" t="s">
+        <v>11</v>
+      </c>
+      <c r="E226" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226" t="s">
         <v>54</v>
-      </c>
-      <c r="B226" t="s">
-        <v>32</v>
-      </c>
-      <c r="C226" t="s">
-        <v>28</v>
-      </c>
-      <c r="D226" t="s">
-        <v>12</v>
-      </c>
-      <c r="E226" t="s">
-        <v>13</v>
-      </c>
-      <c r="F226" t="s">
-        <v>55</v>
       </c>
       <c r="G226">
         <v>2</v>
@@ -5843,22 +5843,22 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
+        <v>53</v>
+      </c>
+      <c r="B227" t="s">
+        <v>31</v>
+      </c>
+      <c r="C227" t="s">
+        <v>27</v>
+      </c>
+      <c r="D227" t="s">
+        <v>11</v>
+      </c>
+      <c r="E227" t="s">
+        <v>16</v>
+      </c>
+      <c r="F227" t="s">
         <v>54</v>
-      </c>
-      <c r="B227" t="s">
-        <v>32</v>
-      </c>
-      <c r="C227" t="s">
-        <v>28</v>
-      </c>
-      <c r="D227" t="s">
-        <v>12</v>
-      </c>
-      <c r="E227" t="s">
-        <v>17</v>
-      </c>
-      <c r="F227" t="s">
-        <v>55</v>
       </c>
       <c r="G227">
         <v>2</v>
@@ -5866,22 +5866,22 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
+        <v>53</v>
+      </c>
+      <c r="B228" t="s">
+        <v>31</v>
+      </c>
+      <c r="C228" t="s">
+        <v>27</v>
+      </c>
+      <c r="D228" t="s">
+        <v>11</v>
+      </c>
+      <c r="E228" t="s">
+        <v>14</v>
+      </c>
+      <c r="F228" t="s">
         <v>54</v>
-      </c>
-      <c r="B228" t="s">
-        <v>32</v>
-      </c>
-      <c r="C228" t="s">
-        <v>28</v>
-      </c>
-      <c r="D228" t="s">
-        <v>12</v>
-      </c>
-      <c r="E228" t="s">
-        <v>15</v>
-      </c>
-      <c r="F228" t="s">
-        <v>55</v>
       </c>
       <c r="G228">
         <v>2</v>
@@ -5889,22 +5889,22 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
+        <v>53</v>
+      </c>
+      <c r="B229" t="s">
+        <v>31</v>
+      </c>
+      <c r="C229" t="s">
+        <v>27</v>
+      </c>
+      <c r="D229" t="s">
+        <v>11</v>
+      </c>
+      <c r="E229" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" t="s">
         <v>54</v>
-      </c>
-      <c r="B229" t="s">
-        <v>32</v>
-      </c>
-      <c r="C229" t="s">
-        <v>28</v>
-      </c>
-      <c r="D229" t="s">
-        <v>12</v>
-      </c>
-      <c r="E229" t="s">
-        <v>9</v>
-      </c>
-      <c r="F229" t="s">
-        <v>55</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -5912,22 +5912,22 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
+        <v>53</v>
+      </c>
+      <c r="B230" t="s">
+        <v>31</v>
+      </c>
+      <c r="C230" t="s">
+        <v>27</v>
+      </c>
+      <c r="D230" t="s">
+        <v>11</v>
+      </c>
+      <c r="E230" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230" t="s">
         <v>54</v>
-      </c>
-      <c r="B230" t="s">
-        <v>32</v>
-      </c>
-      <c r="C230" t="s">
-        <v>28</v>
-      </c>
-      <c r="D230" t="s">
-        <v>12</v>
-      </c>
-      <c r="E230" t="s">
-        <v>11</v>
-      </c>
-      <c r="F230" t="s">
-        <v>55</v>
       </c>
       <c r="G230">
         <v>2</v>
@@ -5935,22 +5935,22 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
+        <v>53</v>
+      </c>
+      <c r="B231" t="s">
+        <v>31</v>
+      </c>
+      <c r="C231" t="s">
+        <v>27</v>
+      </c>
+      <c r="D231" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231" t="s">
+        <v>11</v>
+      </c>
+      <c r="F231" t="s">
         <v>54</v>
-      </c>
-      <c r="B231" t="s">
-        <v>32</v>
-      </c>
-      <c r="C231" t="s">
-        <v>28</v>
-      </c>
-      <c r="D231" t="s">
-        <v>12</v>
-      </c>
-      <c r="E231" t="s">
-        <v>12</v>
-      </c>
-      <c r="F231" t="s">
-        <v>55</v>
       </c>
       <c r="G231">
         <v>2</v>
@@ -5958,22 +5958,22 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B232" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E232" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -5981,22 +5981,22 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B233" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C233" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F233" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G233">
         <v>1</v>
@@ -6004,22 +6004,22 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B234" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F234" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G234">
         <v>2</v>
@@ -6027,22 +6027,22 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B235" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E235" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G235">
         <v>2</v>
@@ -6050,22 +6050,22 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B236" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C236" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D236" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -6073,22 +6073,22 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C237" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G237">
         <v>2</v>
@@ -6096,22 +6096,22 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B238" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C238" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E238" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F238" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G238">
         <v>2</v>
@@ -6119,22 +6119,22 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B239" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E239" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F239" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G239">
         <v>1</v>
@@ -6142,22 +6142,22 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B240" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C240" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D240" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E240" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F240" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G240">
         <v>1</v>
@@ -6165,22 +6165,22 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B241" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C241" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E241" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -6188,22 +6188,22 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B242" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C242" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E242" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -6211,22 +6211,22 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B243" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E243" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F243" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -6234,22 +6234,22 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E244" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D244" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E244" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F244" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G244" s="5">
         <v>1</v>
@@ -6257,22 +6257,22 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D245" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E245" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F245" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B245" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E245" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F245" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G245" s="5">
         <v>1</v>
@@ -6280,22 +6280,22 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B246" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D246" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E246" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F246" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G246" s="5">
         <v>1</v>
@@ -6303,22 +6303,22 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E247" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E247" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F247" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G247" s="5">
         <v>1</v>
@@ -6326,22 +6326,22 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E248" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F248" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D248" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E248" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F248" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G248" s="5">
         <v>1</v>
@@ -6349,22 +6349,22 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F249" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B249" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E249" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F249" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G249" s="5">
         <v>1</v>
@@ -6372,22 +6372,22 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D250" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E250" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F250" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B250" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D250" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E250" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F250" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G250" s="5">
         <v>1</v>
@@ -6395,22 +6395,22 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E251" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F251" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G251" s="5">
         <v>1</v>
@@ -6418,22 +6418,22 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F252" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E252" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F252" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G252" s="5">
         <v>1</v>
@@ -6441,22 +6441,22 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E253" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F253" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D253" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E253" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F253" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G253" s="5">
         <v>1</v>
@@ -6464,22 +6464,22 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E254" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F254" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D254" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E254" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F254" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G254" s="5">
         <v>1</v>
@@ -6487,22 +6487,22 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D255" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E255" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F255" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D255" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E255" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F255" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G255" s="5">
         <v>1</v>
@@ -6510,22 +6510,22 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D256" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F256" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D256" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E256" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F256" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G256" s="5">
         <v>1</v>
@@ -6533,22 +6533,22 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D257" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F257" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D257" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E257" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F257" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G257" s="5">
         <v>1</v>
@@ -6556,22 +6556,22 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D258" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E258" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D258" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E258" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F258" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="G258" s="5">
         <v>1</v>
@@ -6579,22 +6579,22 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G259" s="5">
         <v>1</v>
@@ -6602,22 +6602,22 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D260" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E260" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G260" s="5">
         <v>2</v>
@@ -6625,22 +6625,22 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B261" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C261" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D261" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E261" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F261" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G261">
         <v>3</v>
@@ -6648,22 +6648,22 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B262" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C262" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D262" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F262" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G262">
         <v>3</v>
@@ -6671,22 +6671,22 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B263" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C263" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F263" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G263">
         <v>3</v>
@@ -6694,22 +6694,22 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B264" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C264" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D264" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G264">
         <v>3</v>
@@ -6717,22 +6717,22 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B265" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C265" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D265" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E265" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F265" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G265">
         <v>3</v>
@@ -6740,22 +6740,22 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E266" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G266" s="5">
         <v>1</v>
@@ -6763,22 +6763,22 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G267" s="5">
         <v>1</v>
@@ -6786,22 +6786,22 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B268" t="s">
+        <v>31</v>
+      </c>
+      <c r="C268" t="s">
+        <v>27</v>
+      </c>
+      <c r="D268" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" t="s">
         <v>32</v>
-      </c>
-      <c r="C268" t="s">
-        <v>28</v>
-      </c>
-      <c r="D268" t="s">
-        <v>12</v>
-      </c>
-      <c r="E268" t="s">
-        <v>10</v>
-      </c>
-      <c r="F268" t="s">
-        <v>33</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -6809,22 +6809,22 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B269" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C269" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D269" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E269" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F269" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G269">
         <v>2</v>
@@ -6832,22 +6832,22 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B270" t="s">
+        <v>31</v>
+      </c>
+      <c r="C270" t="s">
+        <v>27</v>
+      </c>
+      <c r="D270" t="s">
+        <v>11</v>
+      </c>
+      <c r="E270" t="s">
+        <v>7</v>
+      </c>
+      <c r="F270" t="s">
         <v>32</v>
-      </c>
-      <c r="C270" t="s">
-        <v>28</v>
-      </c>
-      <c r="D270" t="s">
-        <v>12</v>
-      </c>
-      <c r="E270" t="s">
-        <v>8</v>
-      </c>
-      <c r="F270" t="s">
-        <v>33</v>
       </c>
       <c r="G270">
         <v>1</v>
@@ -6855,22 +6855,22 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B271" t="s">
+        <v>31</v>
+      </c>
+      <c r="C271" t="s">
+        <v>27</v>
+      </c>
+      <c r="D271" t="s">
+        <v>11</v>
+      </c>
+      <c r="E271" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271" t="s">
         <v>32</v>
-      </c>
-      <c r="C271" t="s">
-        <v>28</v>
-      </c>
-      <c r="D271" t="s">
-        <v>12</v>
-      </c>
-      <c r="E271" t="s">
-        <v>13</v>
-      </c>
-      <c r="F271" t="s">
-        <v>33</v>
       </c>
       <c r="G271">
         <v>1</v>
@@ -6878,22 +6878,22 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B272" t="s">
+        <v>31</v>
+      </c>
+      <c r="C272" t="s">
+        <v>27</v>
+      </c>
+      <c r="D272" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272" t="s">
+        <v>16</v>
+      </c>
+      <c r="F272" t="s">
         <v>32</v>
-      </c>
-      <c r="C272" t="s">
-        <v>28</v>
-      </c>
-      <c r="D272" t="s">
-        <v>9</v>
-      </c>
-      <c r="E272" t="s">
-        <v>17</v>
-      </c>
-      <c r="F272" t="s">
-        <v>33</v>
       </c>
       <c r="G272">
         <v>1</v>
@@ -6901,22 +6901,22 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B273" t="s">
+        <v>31</v>
+      </c>
+      <c r="C273" t="s">
+        <v>27</v>
+      </c>
+      <c r="D273" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" t="s">
+        <v>14</v>
+      </c>
+      <c r="F273" t="s">
         <v>32</v>
-      </c>
-      <c r="C273" t="s">
-        <v>28</v>
-      </c>
-      <c r="D273" t="s">
-        <v>9</v>
-      </c>
-      <c r="E273" t="s">
-        <v>15</v>
-      </c>
-      <c r="F273" t="s">
-        <v>33</v>
       </c>
       <c r="G273">
         <v>1</v>
@@ -6924,22 +6924,22 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B274" t="s">
+        <v>31</v>
+      </c>
+      <c r="C274" t="s">
+        <v>27</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" t="s">
+        <v>8</v>
+      </c>
+      <c r="F274" t="s">
         <v>32</v>
-      </c>
-      <c r="C274" t="s">
-        <v>28</v>
-      </c>
-      <c r="D274" t="s">
-        <v>9</v>
-      </c>
-      <c r="E274" t="s">
-        <v>9</v>
-      </c>
-      <c r="F274" t="s">
-        <v>33</v>
       </c>
       <c r="G274">
         <v>1</v>
@@ -6947,22 +6947,22 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B275" t="s">
+        <v>31</v>
+      </c>
+      <c r="C275" t="s">
+        <v>27</v>
+      </c>
+      <c r="D275" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" t="s">
         <v>32</v>
-      </c>
-      <c r="C275" t="s">
-        <v>28</v>
-      </c>
-      <c r="D275" t="s">
-        <v>9</v>
-      </c>
-      <c r="E275" t="s">
-        <v>11</v>
-      </c>
-      <c r="F275" t="s">
-        <v>33</v>
       </c>
       <c r="G275">
         <v>1</v>
@@ -6970,22 +6970,22 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B276" t="s">
+        <v>31</v>
+      </c>
+      <c r="C276" t="s">
+        <v>27</v>
+      </c>
+      <c r="D276" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276" t="s">
+        <v>11</v>
+      </c>
+      <c r="F276" t="s">
         <v>32</v>
-      </c>
-      <c r="C276" t="s">
-        <v>28</v>
-      </c>
-      <c r="D276" t="s">
-        <v>9</v>
-      </c>
-      <c r="E276" t="s">
-        <v>12</v>
-      </c>
-      <c r="F276" t="s">
-        <v>33</v>
       </c>
       <c r="G276">
         <v>1</v>
@@ -6993,22 +6993,22 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B277" t="s">
+        <v>31</v>
+      </c>
+      <c r="C277" t="s">
+        <v>27</v>
+      </c>
+      <c r="D277" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277" t="s">
+        <v>11</v>
+      </c>
+      <c r="F277" t="s">
         <v>32</v>
-      </c>
-      <c r="C277" t="s">
-        <v>28</v>
-      </c>
-      <c r="D277" t="s">
-        <v>12</v>
-      </c>
-      <c r="E277" t="s">
-        <v>12</v>
-      </c>
-      <c r="F277" t="s">
-        <v>33</v>
       </c>
       <c r="G277">
         <v>1</v>
@@ -7016,22 +7016,22 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B278" t="s">
+        <v>31</v>
+      </c>
+      <c r="C278" t="s">
+        <v>27</v>
+      </c>
+      <c r="D278" t="s">
+        <v>11</v>
+      </c>
+      <c r="E278" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" t="s">
         <v>32</v>
-      </c>
-      <c r="C278" t="s">
-        <v>28</v>
-      </c>
-      <c r="D278" t="s">
-        <v>12</v>
-      </c>
-      <c r="E278" t="s">
-        <v>11</v>
-      </c>
-      <c r="F278" t="s">
-        <v>33</v>
       </c>
       <c r="G278">
         <v>1</v>
@@ -7039,22 +7039,22 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B279" t="s">
+        <v>31</v>
+      </c>
+      <c r="C279" t="s">
+        <v>27</v>
+      </c>
+      <c r="D279" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" t="s">
+        <v>8</v>
+      </c>
+      <c r="F279" t="s">
         <v>32</v>
-      </c>
-      <c r="C279" t="s">
-        <v>28</v>
-      </c>
-      <c r="D279" t="s">
-        <v>12</v>
-      </c>
-      <c r="E279" t="s">
-        <v>9</v>
-      </c>
-      <c r="F279" t="s">
-        <v>33</v>
       </c>
       <c r="G279">
         <v>1</v>
@@ -7062,22 +7062,22 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B280" t="s">
+        <v>31</v>
+      </c>
+      <c r="C280" t="s">
+        <v>27</v>
+      </c>
+      <c r="D280" t="s">
+        <v>11</v>
+      </c>
+      <c r="E280" t="s">
+        <v>14</v>
+      </c>
+      <c r="F280" t="s">
         <v>32</v>
-      </c>
-      <c r="C280" t="s">
-        <v>28</v>
-      </c>
-      <c r="D280" t="s">
-        <v>12</v>
-      </c>
-      <c r="E280" t="s">
-        <v>15</v>
-      </c>
-      <c r="F280" t="s">
-        <v>33</v>
       </c>
       <c r="G280">
         <v>1</v>
@@ -7085,22 +7085,22 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B281" t="s">
+        <v>31</v>
+      </c>
+      <c r="C281" t="s">
+        <v>27</v>
+      </c>
+      <c r="D281" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" t="s">
+        <v>16</v>
+      </c>
+      <c r="F281" t="s">
         <v>32</v>
-      </c>
-      <c r="C281" t="s">
-        <v>28</v>
-      </c>
-      <c r="D281" t="s">
-        <v>12</v>
-      </c>
-      <c r="E281" t="s">
-        <v>17</v>
-      </c>
-      <c r="F281" t="s">
-        <v>33</v>
       </c>
       <c r="G281">
         <v>1</v>
@@ -7108,22 +7108,22 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D282" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E282" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G282" s="5">
         <v>2</v>
@@ -7131,22 +7131,22 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D283" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E283" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E283" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F283" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G283" s="5">
         <v>2</v>
@@ -7154,22 +7154,22 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D284" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E284" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G284" s="5">
         <v>2</v>
@@ -7177,22 +7177,22 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D285" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E285" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="F285" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G285" s="5">
         <v>2</v>
@@ -7200,22 +7200,22 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D286" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E286" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G286" s="5">
         <v>2</v>
@@ -7223,22 +7223,22 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D287" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E287" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G287" s="5">
         <v>2</v>
@@ -7246,22 +7246,22 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E288" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G288" s="5">
         <v>2</v>
@@ -7269,22 +7269,22 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D289" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E289" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G289" s="5">
         <v>2</v>
@@ -7292,22 +7292,22 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D290" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E290" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G290" s="5">
         <v>1</v>
@@ -7315,22 +7315,22 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D291" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E291" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G291" s="5">
         <v>1</v>
@@ -7338,22 +7338,22 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D292" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E292" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G292" s="5">
         <v>2</v>
@@ -7361,22 +7361,22 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D293" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E293" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G293" s="5">
         <v>1</v>
@@ -7384,22 +7384,22 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B294" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C294" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D294" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E294" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F294" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G294">
         <v>3</v>
@@ -7407,22 +7407,22 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
+        <v>37</v>
+      </c>
+      <c r="B295" t="s">
+        <v>31</v>
+      </c>
+      <c r="C295" t="s">
+        <v>27</v>
+      </c>
+      <c r="D295" t="s">
+        <v>10</v>
+      </c>
+      <c r="E295" t="s">
+        <v>14</v>
+      </c>
+      <c r="F295" t="s">
         <v>38</v>
-      </c>
-      <c r="B295" t="s">
-        <v>32</v>
-      </c>
-      <c r="C295" t="s">
-        <v>28</v>
-      </c>
-      <c r="D295" t="s">
-        <v>11</v>
-      </c>
-      <c r="E295" t="s">
-        <v>15</v>
-      </c>
-      <c r="F295" t="s">
-        <v>39</v>
       </c>
       <c r="G295">
         <v>1</v>
@@ -7430,22 +7430,22 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B296" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C296" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D296" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E296" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F296" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G296">
         <v>3</v>
@@ -7453,22 +7453,22 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B297" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C297" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D297" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E297" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F297" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G297">
         <v>3</v>
@@ -7476,22 +7476,22 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B298" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C298" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D298" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E298" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F298" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G298">
         <v>3</v>
@@ -7499,22 +7499,22 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
+        <v>37</v>
+      </c>
+      <c r="B299" t="s">
+        <v>31</v>
+      </c>
+      <c r="C299" t="s">
+        <v>27</v>
+      </c>
+      <c r="D299" t="s">
+        <v>10</v>
+      </c>
+      <c r="E299" t="s">
+        <v>9</v>
+      </c>
+      <c r="F299" t="s">
         <v>38</v>
-      </c>
-      <c r="B299" t="s">
-        <v>32</v>
-      </c>
-      <c r="C299" t="s">
-        <v>28</v>
-      </c>
-      <c r="D299" t="s">
-        <v>11</v>
-      </c>
-      <c r="E299" t="s">
-        <v>10</v>
-      </c>
-      <c r="F299" t="s">
-        <v>39</v>
       </c>
       <c r="G299">
         <v>1</v>
@@ -7522,22 +7522,22 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
+        <v>37</v>
+      </c>
+      <c r="B300" t="s">
+        <v>31</v>
+      </c>
+      <c r="C300" t="s">
+        <v>27</v>
+      </c>
+      <c r="D300" t="s">
+        <v>10</v>
+      </c>
+      <c r="E300" t="s">
+        <v>12</v>
+      </c>
+      <c r="F300" t="s">
         <v>38</v>
-      </c>
-      <c r="B300" t="s">
-        <v>32</v>
-      </c>
-      <c r="C300" t="s">
-        <v>28</v>
-      </c>
-      <c r="D300" t="s">
-        <v>11</v>
-      </c>
-      <c r="E300" t="s">
-        <v>13</v>
-      </c>
-      <c r="F300" t="s">
-        <v>39</v>
       </c>
       <c r="G300">
         <v>1</v>
@@ -7545,22 +7545,22 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
+        <v>37</v>
+      </c>
+      <c r="B301" t="s">
+        <v>31</v>
+      </c>
+      <c r="C301" t="s">
+        <v>27</v>
+      </c>
+      <c r="D301" t="s">
+        <v>10</v>
+      </c>
+      <c r="E301" t="s">
+        <v>16</v>
+      </c>
+      <c r="F301" t="s">
         <v>38</v>
-      </c>
-      <c r="B301" t="s">
-        <v>32</v>
-      </c>
-      <c r="C301" t="s">
-        <v>28</v>
-      </c>
-      <c r="D301" t="s">
-        <v>11</v>
-      </c>
-      <c r="E301" t="s">
-        <v>17</v>
-      </c>
-      <c r="F301" t="s">
-        <v>39</v>
       </c>
       <c r="G301">
         <v>1</v>
